--- a/data/trans_orig/P1803_2016_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1803_2016_2023-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>26173</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17445</v>
+        <v>16918</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37947</v>
+        <v>36381</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03878606934903239</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02585213911065729</v>
+        <v>0.02507097318147816</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05623512499479241</v>
+        <v>0.05391372553954948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -763,19 +763,19 @@
         <v>24132</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15950</v>
+        <v>15943</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35098</v>
+        <v>33806</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03586641040887047</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02370561599039234</v>
+        <v>0.02369443497205264</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0521639290008438</v>
+        <v>0.05024402112188649</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -784,19 +784,19 @@
         <v>50305</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38020</v>
+        <v>37733</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65644</v>
+        <v>65539</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03732836413362142</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02821253751138415</v>
+        <v>0.02799960221862932</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04871012902955015</v>
+        <v>0.04863238491248056</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>648627</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>636853</v>
+        <v>638419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>657355</v>
+        <v>657882</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9612139306509676</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9437648750052076</v>
+        <v>0.9460862744604506</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9741478608893427</v>
+        <v>0.9749290268185218</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>642</v>
@@ -834,19 +834,19 @@
         <v>648707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>637741</v>
+        <v>639033</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>656889</v>
+        <v>656896</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9641335895911295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9478360709991566</v>
+        <v>0.9497559788781134</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9762943840096077</v>
+        <v>0.9763055650279473</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1269</v>
@@ -855,19 +855,19 @@
         <v>1297334</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1281995</v>
+        <v>1282100</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1309619</v>
+        <v>1309906</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9626716358663786</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9512898709704498</v>
+        <v>0.9513676150875195</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.971787462488616</v>
+        <v>0.9720003977813707</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>43528</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32363</v>
+        <v>31636</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58407</v>
+        <v>59721</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0425728228190392</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03165256397096859</v>
+        <v>0.0309422063063431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05712609224494398</v>
+        <v>0.05841092814365662</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -980,19 +980,19 @@
         <v>49354</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37927</v>
+        <v>35293</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67240</v>
+        <v>64243</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04732290587416958</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03636612428620932</v>
+        <v>0.03384096311515446</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06447354151861573</v>
+        <v>0.06159980110384009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -1001,19 +1001,19 @@
         <v>92881</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73671</v>
+        <v>73474</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111504</v>
+        <v>112428</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04497141762629366</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03567006633956066</v>
+        <v>0.0355746264575946</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05398794999637901</v>
+        <v>0.05443553346041297</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>978903</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>964024</v>
+        <v>962710</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>990068</v>
+        <v>990795</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9574271771809608</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.942873907755056</v>
+        <v>0.9415890718563432</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9683474360290312</v>
+        <v>0.9690577936936569</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>930</v>
@@ -1051,19 +1051,19 @@
         <v>993559</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>975673</v>
+        <v>978670</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1004986</v>
+        <v>1007620</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9526770941258305</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9355264584813846</v>
+        <v>0.9384001988961602</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9636338757137911</v>
+        <v>0.9661590368848457</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1842</v>
@@ -1072,19 +1072,19 @@
         <v>1972463</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1953840</v>
+        <v>1952916</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1991673</v>
+        <v>1991870</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9550285823737064</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.946012050003621</v>
+        <v>0.945564466539587</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9643299336604394</v>
+        <v>0.9644253735424054</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>26712</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17660</v>
+        <v>17303</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38753</v>
+        <v>38475</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03516753647327928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02325079650434042</v>
+        <v>0.02278017552117143</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05102046383968078</v>
+        <v>0.05065507185247221</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1197,19 +1197,19 @@
         <v>39170</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27989</v>
+        <v>27900</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52271</v>
+        <v>52658</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04989690993696784</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03565437985843679</v>
+        <v>0.03554152621383272</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06658616154901596</v>
+        <v>0.06707982035151047</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -1218,19 +1218,19 @@
         <v>65881</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51229</v>
+        <v>50962</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83057</v>
+        <v>83016</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04265361341741895</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03316727729828966</v>
+        <v>0.03299468043222494</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05377394398212804</v>
+        <v>0.05374749624187229</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>732840</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>720799</v>
+        <v>721077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>741892</v>
+        <v>742249</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9648324635267207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9489795361603192</v>
+        <v>0.9493449281475278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9767492034956594</v>
+        <v>0.9772198244788286</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>699</v>
@@ -1268,19 +1268,19 @@
         <v>745841</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>732740</v>
+        <v>732353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>757022</v>
+        <v>757111</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9501030900630322</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.933413838450984</v>
+        <v>0.9329201796484898</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9643456201415629</v>
+        <v>0.9644584737861673</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1371</v>
@@ -1289,19 +1289,19 @@
         <v>1478682</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1461506</v>
+        <v>1461547</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1493334</v>
+        <v>1493601</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9573463865825811</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9462260560178724</v>
+        <v>0.9462525037581287</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9668327227017105</v>
+        <v>0.9670053195677751</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>59093</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45004</v>
+        <v>45227</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77197</v>
+        <v>75287</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06302775100535454</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04800075335738664</v>
+        <v>0.04823919243799238</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08233718209779298</v>
+        <v>0.08030073823954423</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -1414,19 +1414,19 @@
         <v>83051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66023</v>
+        <v>65117</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>105111</v>
+        <v>102477</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07956748190534804</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06325397444710844</v>
+        <v>0.0623862285725113</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1007024036668939</v>
+        <v>0.09817903054567809</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -1435,19 +1435,19 @@
         <v>142144</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119899</v>
+        <v>118846</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168170</v>
+        <v>168932</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07174093077600406</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06051369169659685</v>
+        <v>0.05998253874847343</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08487660460010639</v>
+        <v>0.08526102047583022</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>878474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>860370</v>
+        <v>862280</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>892563</v>
+        <v>892340</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9369722489946455</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9176628179022072</v>
+        <v>0.9196992617604558</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9519992466426135</v>
+        <v>0.9517608075620076</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>886</v>
@@ -1485,19 +1485,19 @@
         <v>960728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>938668</v>
+        <v>941302</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>977756</v>
+        <v>978662</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.920432518094652</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8992975963331058</v>
+        <v>0.9018209694543223</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9367460255528914</v>
+        <v>0.9376137714274888</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1764</v>
@@ -1506,19 +1506,19 @@
         <v>1839202</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1813176</v>
+        <v>1812414</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1861447</v>
+        <v>1862500</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9282590692239959</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9151233953998937</v>
+        <v>0.9147389795241699</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9394863083034032</v>
+        <v>0.9400174612515266</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>155505</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>131127</v>
+        <v>131176</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>182074</v>
+        <v>181618</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0458128717987772</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03863103697458815</v>
+        <v>0.03864543730584946</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0536402934647028</v>
+        <v>0.05350592578684288</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>181</v>
@@ -1631,19 +1631,19 @@
         <v>195706</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>168621</v>
+        <v>167255</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>226957</v>
+        <v>226052</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05521347562307298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04757200716565334</v>
+        <v>0.04718654689299749</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0640300380394426</v>
+        <v>0.06377454952084659</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>323</v>
@@ -1652,19 +1652,19 @@
         <v>351211</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>313118</v>
+        <v>315572</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>392676</v>
+        <v>389115</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05061491129271722</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04512500734962572</v>
+        <v>0.04547872532519533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05659059825878934</v>
+        <v>0.05607738517900533</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3238845</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3212276</v>
+        <v>3212732</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3263223</v>
+        <v>3263174</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9541871282012228</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.946359706535297</v>
+        <v>0.9464940742131573</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9613689630254117</v>
+        <v>0.9613545626941505</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3157</v>
@@ -1702,19 +1702,19 @@
         <v>3348836</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3317585</v>
+        <v>3318490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3375921</v>
+        <v>3377287</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.944786524376927</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9359699619605575</v>
+        <v>0.9362254504791531</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.952427992834347</v>
+        <v>0.9528134531070025</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6246</v>
@@ -1723,19 +1723,19 @@
         <v>6587681</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6546216</v>
+        <v>6549777</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6625774</v>
+        <v>6623320</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9493850887072828</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9434094017412107</v>
+        <v>0.9439226148209953</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9548749926503742</v>
+        <v>0.9545212746748049</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>41670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29435</v>
+        <v>29431</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55929</v>
+        <v>56575</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06032854310833351</v>
+        <v>0.06032854310833349</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04261610751021431</v>
+        <v>0.04260985024141775</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08097321607745869</v>
+        <v>0.08190829223950519</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -2088,19 +2088,19 @@
         <v>62764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52325</v>
+        <v>51360</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77986</v>
+        <v>76028</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08567550096988914</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07142643566816761</v>
+        <v>0.07010841219110492</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1064553437980259</v>
+        <v>0.1037821738557714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -2109,19 +2109,19 @@
         <v>104433</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87092</v>
+        <v>86239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124528</v>
+        <v>123070</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07337480132198418</v>
+        <v>0.07337480132198421</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06119081280808374</v>
+        <v>0.06059179481344282</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08749310077686914</v>
+        <v>0.08646907185279548</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>649040</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>634781</v>
+        <v>634135</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>661275</v>
+        <v>661279</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9396714568916666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9190267839225412</v>
+        <v>0.918091707760495</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9573838924897855</v>
+        <v>0.9573901497585825</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1132</v>
@@ -2159,19 +2159,19 @@
         <v>669810</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>654588</v>
+        <v>656546</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>680249</v>
+        <v>681214</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9143244990301108</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8935446562019739</v>
+        <v>0.8962178261442286</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9285735643318324</v>
+        <v>0.929891587808895</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1822</v>
@@ -2180,19 +2180,19 @@
         <v>1318851</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1298756</v>
+        <v>1300214</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1336192</v>
+        <v>1337045</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9266251986780156</v>
+        <v>0.926625198678016</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9125068992231308</v>
+        <v>0.9135309281472045</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9388091871919163</v>
+        <v>0.9394082051865573</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>72460</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56977</v>
+        <v>56279</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96116</v>
+        <v>95851</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06908041459065722</v>
+        <v>0.06908041459065721</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05431953967900822</v>
+        <v>0.05365426743702138</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09163375686978019</v>
+        <v>0.09138101821078227</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -2305,19 +2305,19 @@
         <v>94108</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79610</v>
+        <v>79306</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111504</v>
+        <v>111757</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08788261394867938</v>
+        <v>0.08788261394867937</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0743432898761781</v>
+        <v>0.07405941500797254</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1041277403820795</v>
+        <v>0.1043637809953265</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>193</v>
@@ -2326,19 +2326,19 @@
         <v>166568</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>145029</v>
+        <v>143205</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>198658</v>
+        <v>197361</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07857873325788126</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06841763976873921</v>
+        <v>0.06755749016158991</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09371759021375345</v>
+        <v>0.09310550543279185</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>976457</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>952801</v>
+        <v>953066</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>991940</v>
+        <v>992638</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9309195854093427</v>
+        <v>0.9309195854093428</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9083662431302199</v>
+        <v>0.9086189817892178</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9456804603209917</v>
+        <v>0.9463457325629786</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1383</v>
@@ -2376,19 +2376,19 @@
         <v>976730</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>959334</v>
+        <v>959081</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>991228</v>
+        <v>991532</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9121173860513206</v>
+        <v>0.9121173860513208</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8958722596179204</v>
+        <v>0.8956362190046734</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.925656710123822</v>
+        <v>0.9259405849920276</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2287</v>
@@ -2397,19 +2397,19 @@
         <v>1953187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1921097</v>
+        <v>1922394</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1974726</v>
+        <v>1976550</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9214212667421189</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9062824097862464</v>
+        <v>0.9068944945672079</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9315823602312607</v>
+        <v>0.9324425098384103</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>55015</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41078</v>
+        <v>42085</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72682</v>
+        <v>76091</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06850584093239684</v>
+        <v>0.06850584093239685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05115072546930258</v>
+        <v>0.05240492854926643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0905043364561503</v>
+        <v>0.09474967225257869</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -2522,19 +2522,19 @@
         <v>78591</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>65223</v>
+        <v>65212</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94340</v>
+        <v>93902</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09682735975571706</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08035707060809033</v>
+        <v>0.08034370312588286</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1162302901589583</v>
+        <v>0.1156903126263658</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>159</v>
@@ -2543,19 +2543,19 @@
         <v>133606</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113123</v>
+        <v>113916</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159177</v>
+        <v>156870</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.082741928495342</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07005654030100794</v>
+        <v>0.07054778199573031</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09857750445776094</v>
+        <v>0.09714890342900036</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>748058</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>730391</v>
+        <v>726982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>761995</v>
+        <v>760988</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9314941590676034</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9094956635438498</v>
+        <v>0.9052503277474214</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9488492745306976</v>
+        <v>0.9475950714507335</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>935</v>
@@ -2593,19 +2593,19 @@
         <v>733072</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>717323</v>
+        <v>717761</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>746440</v>
+        <v>746451</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.903172640244283</v>
+        <v>0.9031726402442829</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8837697098410414</v>
+        <v>0.884309687373634</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9196429293919097</v>
+        <v>0.9196562968741172</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1563</v>
@@ -2614,19 +2614,19 @@
         <v>1481130</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1455559</v>
+        <v>1457866</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1501613</v>
+        <v>1500820</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9172580715046581</v>
+        <v>0.917258071504658</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9014224955422391</v>
+        <v>0.9028510965709994</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9299434596989921</v>
+        <v>0.9294522180042692</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>112852</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93162</v>
+        <v>93300</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>135489</v>
+        <v>135243</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1139846526533234</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09409734645461436</v>
+        <v>0.09423619929391557</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1368485806815689</v>
+        <v>0.1366009725931784</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>201</v>
@@ -2739,19 +2739,19 @@
         <v>135344</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117549</v>
+        <v>118602</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154941</v>
+        <v>153992</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1210204339244935</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1051084376679114</v>
+        <v>0.1060503946547754</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1385432598095542</v>
+        <v>0.1376947923491878</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>316</v>
@@ -2760,19 +2760,19 @@
         <v>248196</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>222311</v>
+        <v>220894</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>277315</v>
+        <v>278027</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1177166019330087</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1054397396923793</v>
+        <v>0.1047674249339536</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.131527665791372</v>
+        <v>0.1318650328131337</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>877210</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>854573</v>
+        <v>854819</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>896900</v>
+        <v>896762</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8860153473466765</v>
+        <v>0.8860153473466766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8631514193184311</v>
+        <v>0.8633990274068217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9059026535453856</v>
+        <v>0.9057638007060844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1360</v>
@@ -2810,19 +2810,19 @@
         <v>983013</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>963416</v>
+        <v>964365</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1000808</v>
+        <v>999755</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8789795660755066</v>
+        <v>0.8789795660755065</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8614567401904458</v>
+        <v>0.862305207650812</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8948915623320886</v>
+        <v>0.8939496053452247</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2251</v>
@@ -2831,19 +2831,19 @@
         <v>1860223</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1831104</v>
+        <v>1830392</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1886108</v>
+        <v>1887525</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8822833980669915</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8684723342086277</v>
+        <v>0.8681349671868663</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8945602603076203</v>
+        <v>0.8952325750660465</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>281996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>246922</v>
+        <v>246384</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>316698</v>
+        <v>318309</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07982316085622014</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06989497205112116</v>
+        <v>0.06974268496579876</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08964592226589606</v>
+        <v>0.0901020470619205</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>551</v>
@@ -2956,19 +2956,19 @@
         <v>370807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>340613</v>
+        <v>338900</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>402814</v>
+        <v>404013</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09932065443008187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09123318822905967</v>
+        <v>0.09077431114984584</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1078936863307551</v>
+        <v>0.1082149185606959</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>814</v>
@@ -2977,19 +2977,19 @@
         <v>652803</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>608229</v>
+        <v>609764</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>700622</v>
+        <v>703435</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08984113736797675</v>
+        <v>0.08984113736797676</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08370663893180499</v>
+        <v>0.08391791950242071</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09642219314618809</v>
+        <v>0.09680929483629289</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3250766</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3216064</v>
+        <v>3214453</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3285840</v>
+        <v>3286378</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.92017683914378</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9103540777341044</v>
+        <v>0.9098979529380795</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9301050279488788</v>
+        <v>0.9302573150342013</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4810</v>
@@ -3027,19 +3027,19 @@
         <v>3362624</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3330617</v>
+        <v>3329418</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3392818</v>
+        <v>3394531</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9006793455699181</v>
+        <v>0.900679345569918</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8921063136692446</v>
+        <v>0.8917850814393037</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9087668117709401</v>
+        <v>0.9092256888501539</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7923</v>
@@ -3048,19 +3048,19 @@
         <v>6613390</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6565571</v>
+        <v>6562758</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6657964</v>
+        <v>6656429</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9101588626320234</v>
+        <v>0.9101588626320233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9035778068538121</v>
+        <v>0.9031907051637071</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9162933610681949</v>
+        <v>0.9160820804975792</v>
       </c>
     </row>
     <row r="18">
